--- a/dataset/64.xlsx
+++ b/dataset/64.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python project\wqd7001\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3442DB-FE62-491F-9BD9-5E950E12EE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6691A93D-556C-4299-9705-2955864AD9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Development relevance</t>
   </si>
   <si>
-    <t>1984 [YR1984]</t>
-  </si>
-  <si>
     <t>2013 [YR2013]</t>
   </si>
   <si>
-    <t>1975 [YR1975]</t>
-  </si>
-  <si>
     <t>Aggregation method</t>
   </si>
   <si>
@@ -44,18 +38,9 @@
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>1992 [YR1992]</t>
-  </si>
-  <si>
-    <t>1983 [YR1983]</t>
-  </si>
-  <si>
     <t>2012 [YR2012]</t>
   </si>
   <si>
-    <t>1974 [YR1974]</t>
-  </si>
-  <si>
     <t>2018 [YR2018]</t>
   </si>
   <si>
@@ -68,82 +53,40 @@
     <t>United Nations Population Division. World Population Prospects: 2022 Revision.</t>
   </si>
   <si>
-    <t>1965 [YR1965]</t>
-  </si>
-  <si>
-    <t>1997 [YR1997]</t>
-  </si>
-  <si>
     <t>Weighted average</t>
   </si>
   <si>
-    <t>1982 [YR1982]</t>
-  </si>
-  <si>
     <t>Total population between the ages 15 to 64 as a percentage of the total population. Population is based on the de facto definition of population, which counts all residents regardless of legal status or citizenship.</t>
   </si>
   <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>1988 [YR1988]</t>
-  </si>
-  <si>
     <t>Population ages 15-64 (% of total population)</t>
   </si>
   <si>
     <t>Health: Population: Structure</t>
   </si>
   <si>
-    <t>1973 [YR1973]</t>
-  </si>
-  <si>
     <t>2017 [YR2017]</t>
   </si>
   <si>
-    <t>1964 [YR1964]</t>
-  </si>
-  <si>
     <t>2008 [YR2008]</t>
-  </si>
-  <si>
-    <t>1996 [YR1996]</t>
   </si>
   <si>
     <t>Patterns of development in a country are partly determined by the age composition of its population. Different age groups have different impacts on both the environment and on infrastructure needs.  Therefore the age structure of a population is useful for analyzing resource use and formulating future policy and planning goals  with regards infrastructure and development.
 This indicator is used for calculating age dependency ratio (percent of working-age population). The age dependency ratio is the ratio of the sum of the population aged 0-14 and the population aged 65 and above to the population aged 15-64. In many developing countries, the once rapidly growing population group of the under-15 population is shrinking. As a result, high fertility rates, together with declining mortality rates, are now reflected in the larger share of the 65 and older population.</t>
   </si>
   <si>
-    <t>1987 [YR1987]</t>
-  </si>
-  <si>
     <t>2016 [YR2016]</t>
   </si>
   <si>
-    <t>1978 [YR1978]</t>
-  </si>
-  <si>
-    <t>1963 [YR1963]</t>
-  </si>
-  <si>
     <t>2007 [YR2007]</t>
   </si>
   <si>
-    <t>1995 [YR1995]</t>
-  </si>
-  <si>
-    <t>1969 [YR1969]</t>
-  </si>
-  <si>
     <t>License Type</t>
   </si>
   <si>
-    <t>1986 [YR1986]</t>
-  </si>
-  <si>
-    <t>1977 [YR1977]</t>
-  </si>
-  <si>
     <t>2021 [YR2021]</t>
   </si>
   <si>
@@ -153,72 +96,33 @@
     <t>CC BY-4.0</t>
   </si>
   <si>
-    <t>1968 [YR1968]</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>1985 [YR1985]</t>
-  </si>
-  <si>
-    <t>1991 [YR1991]</t>
-  </si>
-  <si>
-    <t>1976 [YR1976]</t>
-  </si>
-  <si>
     <t>2020 [YR2020]</t>
   </si>
   <si>
     <t>Long definition</t>
   </si>
   <si>
-    <t>1967 [YR1967]</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
     <t>2011 [YR2011]</t>
   </si>
   <si>
-    <t>1999 [YR1999]</t>
-  </si>
-  <si>
     <t>2002 [YR2002]</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
     <t>2019 [YR2019]</t>
   </si>
   <si>
-    <t>1981 [YR1981]</t>
-  </si>
-  <si>
-    <t>1966 [YR1966]</t>
-  </si>
-  <si>
     <t>2010 [YR2010]</t>
   </si>
   <si>
-    <t>1998 [YR1998]</t>
-  </si>
-  <si>
-    <t>1972 [YR1972]</t>
-  </si>
-  <si>
     <t>2001 [YR2001]</t>
   </si>
   <si>
-    <t>1989 [YR1989]</t>
-  </si>
-  <si>
-    <t>1980 [YR1980]</t>
-  </si>
-  <si>
     <t>2009 [YR2009]</t>
   </si>
   <si>
@@ -226,9 +130,6 @@
   </si>
   <si>
     <t>2015 [YR2015]</t>
-  </si>
-  <si>
-    <t>1971 [YR1971]</t>
   </si>
   <si>
     <t>License URL</t>
@@ -244,24 +145,12 @@
     <t>Source</t>
   </si>
   <si>
-    <t>1962 [YR1962]</t>
-  </si>
-  <si>
-    <t>1994 [YR1994]</t>
-  </si>
-  <si>
-    <t>1979 [YR1979]</t>
-  </si>
-  <si>
     <t>2023 [YR2023]</t>
   </si>
   <si>
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>1970 [YR1970]</t>
-  </si>
-  <si>
     <t>2014 [YR2014]</t>
   </si>
   <si>
@@ -269,12 +158,6 @@
   </si>
   <si>
     <t>2005 [YR2005]</t>
-  </si>
-  <si>
-    <t>1961 [YR1961]</t>
-  </si>
-  <si>
-    <t>1993 [YR1993]</t>
   </si>
   <si>
     <t>2022 [YR2022]</t>
@@ -624,393 +507,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI1" t="s">
         <v>40</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>51.237271441060898</v>
+        <v>62.369823252408501</v>
       </c>
       <c r="B2">
-        <v>51.001937959818001</v>
+        <v>62.562419782099298</v>
       </c>
       <c r="C2">
-        <v>50.8698707285442</v>
+        <v>62.8257017878678</v>
       </c>
       <c r="D2">
-        <v>50.8316220429666</v>
+        <v>63.170914554697497</v>
       </c>
       <c r="E2">
-        <v>50.958985222333801</v>
+        <v>63.601779906065701</v>
       </c>
       <c r="F2">
-        <v>51.232583357998102</v>
+        <v>64.100107716786795</v>
       </c>
       <c r="G2">
-        <v>51.573712655052397</v>
+        <v>64.645186598435799</v>
       </c>
       <c r="H2">
-        <v>51.964855394006598</v>
+        <v>65.217082219506906</v>
       </c>
       <c r="I2">
-        <v>52.375198823576703</v>
+        <v>65.818912684763703</v>
       </c>
       <c r="J2">
-        <v>52.804766658115398</v>
+        <v>66.451745183541206</v>
       </c>
       <c r="K2">
-        <v>53.243630903865302</v>
+        <v>67.062606721958602</v>
       </c>
       <c r="L2">
-        <v>53.692876965943697</v>
+        <v>67.581507389649005</v>
       </c>
       <c r="M2">
-        <v>54.1468808959578</v>
+        <v>68.006251405186404</v>
       </c>
       <c r="N2">
-        <v>54.607740481034902</v>
+        <v>68.370672352892896</v>
       </c>
       <c r="O2">
-        <v>55.099476697561101</v>
+        <v>68.683920094838797</v>
       </c>
       <c r="P2">
-        <v>55.611450317233398</v>
+        <v>68.946948682413506</v>
       </c>
       <c r="Q2">
-        <v>56.148890694012401</v>
+        <v>69.176595006765396</v>
       </c>
       <c r="R2">
-        <v>56.685999050374498</v>
+        <v>69.370653237013002</v>
       </c>
       <c r="S2">
-        <v>57.1631883329338</v>
+        <v>69.510971874784303</v>
       </c>
       <c r="T2">
-        <v>57.5603430660328</v>
+        <v>69.6194531892654</v>
       </c>
       <c r="U2">
-        <v>57.860101004869797</v>
+        <v>69.711190902961903</v>
       </c>
       <c r="V2">
-        <v>58.060164161002902</v>
+        <v>69.787924530066505</v>
       </c>
       <c r="W2">
-        <v>58.2100002084957</v>
+        <v>69.824617945875602</v>
       </c>
       <c r="X2">
-        <v>58.3573543348176</v>
-      </c>
-      <c r="Y2">
-        <v>58.534561016300202</v>
-      </c>
-      <c r="Z2">
-        <v>58.751091026651302</v>
-      </c>
-      <c r="AA2">
-        <v>59.005274899063501</v>
-      </c>
-      <c r="AB2">
-        <v>59.3046065336707</v>
-      </c>
-      <c r="AC2">
-        <v>59.623960257676998</v>
-      </c>
-      <c r="AD2">
-        <v>59.918937855676603</v>
-      </c>
-      <c r="AE2">
-        <v>60.158833669410001</v>
-      </c>
-      <c r="AF2">
-        <v>60.355779342989599</v>
-      </c>
-      <c r="AG2">
-        <v>60.536235627814001</v>
-      </c>
-      <c r="AH2">
-        <v>60.719568824949803</v>
-      </c>
-      <c r="AI2">
-        <v>60.916428596116702</v>
-      </c>
-      <c r="AJ2">
-        <v>61.140949895211499</v>
-      </c>
-      <c r="AK2">
-        <v>61.416320702295401</v>
-      </c>
-      <c r="AL2">
-        <v>61.743967664810903</v>
-      </c>
-      <c r="AM2">
-        <v>62.106831235647199</v>
-      </c>
-      <c r="AN2">
-        <v>62.369823252408501</v>
-      </c>
-      <c r="AO2">
-        <v>62.562419782099298</v>
-      </c>
-      <c r="AP2">
-        <v>62.8257017878678</v>
-      </c>
-      <c r="AQ2">
-        <v>63.170914554697497</v>
-      </c>
-      <c r="AR2">
-        <v>63.601779906065701</v>
-      </c>
-      <c r="AS2">
-        <v>64.100107716786795</v>
-      </c>
-      <c r="AT2">
-        <v>64.645186598435799</v>
-      </c>
-      <c r="AU2">
-        <v>65.217082219506906</v>
-      </c>
-      <c r="AV2">
-        <v>65.818912684763703</v>
-      </c>
-      <c r="AW2">
-        <v>66.451745183541206</v>
-      </c>
-      <c r="AX2">
-        <v>67.062606721958602</v>
-      </c>
-      <c r="AY2">
-        <v>67.581507389649005</v>
-      </c>
-      <c r="AZ2">
-        <v>68.006251405186404</v>
-      </c>
-      <c r="BA2">
-        <v>68.370672352892896</v>
-      </c>
-      <c r="BB2">
-        <v>68.683920094838797</v>
-      </c>
-      <c r="BC2">
-        <v>68.946948682413506</v>
-      </c>
-      <c r="BD2">
-        <v>69.176595006765396</v>
-      </c>
-      <c r="BE2">
-        <v>69.370653237013002</v>
-      </c>
-      <c r="BF2">
-        <v>69.510971874784303</v>
-      </c>
-      <c r="BG2">
-        <v>69.6194531892654</v>
-      </c>
-      <c r="BH2">
-        <v>69.711190902961903</v>
-      </c>
-      <c r="BI2">
-        <v>69.787924530066505</v>
-      </c>
-      <c r="BJ2">
-        <v>69.824617945875602</v>
-      </c>
-      <c r="BK2">
         <v>69.795639713453099</v>
       </c>
     </row>
@@ -1034,72 +683,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
